--- a/DataTool/DataTable/DT_UnitData.xlsx
+++ b/DataTool/DataTable/DT_UnitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="2055" windowWidth="24945" windowHeight="11880" activeTab="1"/>
+    <workbookView xWindow="15" yWindow="2055" windowWidth="24945" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$O$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$M$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2813,7 +2813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2983,10 +2983,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Reference</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>코스트
 (등급에 따른 코스트 상승치 1등급 + 20%, 2등급 + 40%)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3005,10 +3001,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>그룹 지정시 참고할 함선 아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3022,243 +3014,6 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skeleton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkeletonArmy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkeletonSquad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Archer</t>
-  </si>
-  <si>
-    <t>ArcherSquad</t>
-  </si>
-  <si>
-    <t>ArcherArmy</t>
-  </si>
-  <si>
-    <t>SpearGoblin</t>
-  </si>
-  <si>
-    <t>SpearGoblinSquad</t>
-  </si>
-  <si>
-    <t>SpearGoblinArmy</t>
-  </si>
-  <si>
-    <t>Goblin</t>
-  </si>
-  <si>
-    <t>GoblinSquad</t>
-  </si>
-  <si>
-    <t>GoblinArmy</t>
-  </si>
-  <si>
-    <t>Barbarian</t>
-  </si>
-  <si>
-    <t>BarbarianSquad</t>
-  </si>
-  <si>
-    <t>BarbarianArmy</t>
-  </si>
-  <si>
-    <t>Knight</t>
-  </si>
-  <si>
-    <t>KnightSquad</t>
-  </si>
-  <si>
-    <t>KnightArmy</t>
-  </si>
-  <si>
-    <t>Musketeer</t>
-  </si>
-  <si>
-    <t>MusketeerSquad</t>
-  </si>
-  <si>
-    <t>MusketeerArmy</t>
-  </si>
-  <si>
-    <t>Witch</t>
-  </si>
-  <si>
-    <t>WitchSquad</t>
-  </si>
-  <si>
-    <t>GoblinLord</t>
-  </si>
-  <si>
-    <t>GoblinLordSquad</t>
-  </si>
-  <si>
-    <t>BarbarianLord</t>
-  </si>
-  <si>
-    <t>BarbarianLordSquad</t>
-  </si>
-  <si>
-    <t>Prince</t>
-  </si>
-  <si>
-    <t>PrinceSquad</t>
-  </si>
-  <si>
-    <t>PrinceArmy</t>
-  </si>
-  <si>
-    <t>Valkyrie</t>
-  </si>
-  <si>
-    <t>ValkyrieSquad</t>
-  </si>
-  <si>
-    <t>ValkyrieArmy</t>
-  </si>
-  <si>
-    <t>Bowler</t>
-  </si>
-  <si>
-    <t>BowlerSquad</t>
-  </si>
-  <si>
-    <t>BowlerArmy</t>
-  </si>
-  <si>
-    <t>Colossus</t>
-  </si>
-  <si>
-    <t>ColossusSquad</t>
-  </si>
-  <si>
-    <t>ColossusArmy</t>
-  </si>
-  <si>
-    <t>Xbow</t>
-  </si>
-  <si>
-    <t>XbowSquad</t>
-  </si>
-  <si>
-    <t>XbowArmy</t>
-  </si>
-  <si>
-    <t>Giant</t>
-  </si>
-  <si>
-    <t>GiantSquad</t>
-  </si>
-  <si>
-    <t>RoyalGiant</t>
-  </si>
-  <si>
-    <t>RoyalGiantSquad</t>
-  </si>
-  <si>
-    <t>GiantSkeleton</t>
-  </si>
-  <si>
-    <t>GiantSkeletonSquad</t>
-  </si>
-  <si>
-    <t>InfernoDragon</t>
-  </si>
-  <si>
-    <t>InfernoDragonSquad</t>
-  </si>
-  <si>
-    <t>InfernoDragonArmy</t>
-  </si>
-  <si>
-    <t>Bomber</t>
-  </si>
-  <si>
-    <t>BomberSquad</t>
-  </si>
-  <si>
-    <t>BomberArmy</t>
-  </si>
-  <si>
-    <t>ElectricWizard</t>
-  </si>
-  <si>
-    <t>ElectricWizardSquad</t>
-  </si>
-  <si>
-    <t>ElectricWizardArmy</t>
-  </si>
-  <si>
-    <t>Guardian</t>
-  </si>
-  <si>
-    <t>GuardianSquad</t>
-  </si>
-  <si>
-    <t>Paladins</t>
-  </si>
-  <si>
-    <t>PaladinsSquad</t>
-  </si>
-  <si>
-    <t>BroodLord</t>
-  </si>
-  <si>
-    <t>BroodLordSquad</t>
-  </si>
-  <si>
-    <t>ScienceVessle</t>
-  </si>
-  <si>
-    <t>ScienceVessleSquad</t>
-  </si>
-  <si>
-    <t>Probe</t>
-  </si>
-  <si>
-    <t>ProbeSquad</t>
-  </si>
-  <si>
-    <t>ProbeArmy</t>
-  </si>
-  <si>
-    <t>CommandCenter</t>
-  </si>
-  <si>
-    <t>CommandCenterSquad</t>
-  </si>
-  <si>
-    <t>CommandCenterArmy</t>
-  </si>
-  <si>
-    <t>Commando</t>
-  </si>
-  <si>
-    <t>CommandoSquad</t>
-  </si>
-  <si>
-    <t>CommandoArmy</t>
-  </si>
-  <si>
-    <t>ResourceName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리팹 및 아이콘 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3364,7 +3119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3413,6 +3168,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3449,7 +3210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3508,6 +3269,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3601,7 +3365,7 @@
       <sheetName val="Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -6261,7 +6025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6269,10 +6033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6373,7 +6137,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -6382,29 +6146,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6">
         <v>3</v>
@@ -6412,13 +6176,13 @@
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
@@ -6426,13 +6190,13 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
@@ -6440,24 +6204,24 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>39</v>
@@ -6466,29 +6230,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
@@ -6496,27 +6260,27 @@
     </row>
     <row r="16" spans="1:4" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6">
         <v>3</v>
@@ -6524,57 +6288,29 @@
     </row>
     <row r="18" spans="1:4" ht="12" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="6">
         <v>3</v>
       </c>
     </row>
@@ -6588,13 +6324,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6604,22 +6340,20 @@
     <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
-    <col min="15" max="16" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.875" customWidth="1"/>
-    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="13" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.875" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6639,49 +6373,43 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -6736,16 +6464,10 @@
         <v>0</v>
       </c>
       <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1000001</v>
       </c>
@@ -6766,50 +6488,44 @@
       <c r="F3" s="17">
         <v>0</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>52</v>
+      <c r="G3" s="15">
+        <v>220</v>
       </c>
       <c r="H3" s="15">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I3" s="15">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="J3" s="15">
-        <v>320</v>
+        <v>0.1</v>
       </c>
       <c r="K3" s="15">
+        <v>70</v>
+      </c>
+      <c r="L3" s="15">
+        <v>3</v>
+      </c>
+      <c r="M3" s="15">
+        <v>20</v>
+      </c>
+      <c r="N3" s="15">
+        <v>160</v>
+      </c>
+      <c r="O3" s="15">
+        <v>160</v>
+      </c>
+      <c r="P3" s="15">
         <v>1</v>
       </c>
-      <c r="L3" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="M3" s="15">
-        <v>70</v>
-      </c>
-      <c r="N3" s="15">
-        <v>3</v>
-      </c>
-      <c r="O3" s="15">
-        <v>20</v>
-      </c>
-      <c r="P3" s="15">
-        <v>160</v>
-      </c>
       <c r="Q3" s="15">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="R3" s="15">
-        <v>1</v>
-      </c>
-      <c r="S3" s="15">
-        <v>0</v>
-      </c>
-      <c r="T3" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1000002</v>
       </c>
@@ -6830,50 +6546,44 @@
       <c r="F4" s="17">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>54</v>
+      <c r="G4" s="8">
+        <v>220</v>
       </c>
       <c r="H4" s="8">
-        <v>1000001</v>
+        <v>320</v>
       </c>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L4" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N4" s="8">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="O4" s="8">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="P4" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="8">
         <v>0</v>
       </c>
       <c r="R4" s="8">
-        <v>3</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1000003</v>
       </c>
@@ -6894,50 +6604,44 @@
       <c r="F5" s="18">
         <v>2</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>53</v>
+      <c r="G5" s="8">
+        <v>220</v>
       </c>
       <c r="H5" s="8">
-        <v>1000001</v>
+        <v>320</v>
       </c>
       <c r="I5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L5" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="8">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="O5" s="8">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="P5" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="8">
         <v>0</v>
       </c>
       <c r="R5" s="8">
-        <v>6</v>
-      </c>
-      <c r="S5" s="8">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>1000004</v>
       </c>
@@ -6958,50 +6662,44 @@
       <c r="F6" s="17">
         <v>0</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>55</v>
+      <c r="G6" s="15">
+        <v>300</v>
       </c>
       <c r="H6" s="15">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I6" s="15">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="J6" s="15">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="15">
-        <v>1.2</v>
+        <v>110</v>
       </c>
       <c r="L6" s="15">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="M6" s="15">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="N6" s="15">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="O6" s="15">
-        <v>15</v>
+        <v>650</v>
       </c>
       <c r="P6" s="15">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="15">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="R6" s="15">
-        <v>1</v>
-      </c>
-      <c r="S6" s="15">
-        <v>0</v>
-      </c>
-      <c r="T6" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1000005</v>
       </c>
@@ -7022,50 +6720,44 @@
       <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>56</v>
+      <c r="G7" s="8">
+        <v>300</v>
       </c>
       <c r="H7" s="8">
-        <v>1000004</v>
+        <v>400</v>
       </c>
       <c r="I7" s="8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J7" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K7" s="8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L7" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N7" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O7" s="8">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="P7" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="8">
         <v>0</v>
       </c>
       <c r="R7" s="8">
-        <v>2</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1000006</v>
       </c>
@@ -7086,50 +6778,44 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>57</v>
+      <c r="G8" s="8">
+        <v>300</v>
       </c>
       <c r="H8" s="8">
-        <v>1000004</v>
+        <v>400</v>
       </c>
       <c r="I8" s="8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J8" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L8" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N8" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O8" s="8">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="P8" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="8">
         <v>0</v>
       </c>
       <c r="R8" s="8">
-        <v>4</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1000007</v>
       </c>
@@ -7150,50 +6836,44 @@
       <c r="F9" s="17">
         <v>0</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>58</v>
+      <c r="G9" s="15">
+        <v>300</v>
       </c>
       <c r="H9" s="15">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I9" s="15">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="J9" s="15">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="K9" s="15">
-        <v>1.2</v>
+        <v>110</v>
       </c>
       <c r="L9" s="15">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="M9" s="15">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="N9" s="15">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="O9" s="15">
-        <v>15</v>
+        <v>650</v>
       </c>
       <c r="P9" s="15">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="15">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="R9" s="15">
-        <v>1</v>
-      </c>
-      <c r="S9" s="15">
-        <v>0</v>
-      </c>
-      <c r="T9" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1000008</v>
       </c>
@@ -7214,50 +6894,44 @@
       <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>59</v>
+      <c r="G10" s="8">
+        <v>300</v>
       </c>
       <c r="H10" s="8">
-        <v>1000007</v>
+        <v>400</v>
       </c>
       <c r="I10" s="8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J10" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K10" s="8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L10" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N10" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O10" s="8">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="P10" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="8">
         <v>0</v>
       </c>
       <c r="R10" s="8">
-        <v>3</v>
-      </c>
-      <c r="S10" s="8">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1000009</v>
       </c>
@@ -7278,50 +6952,44 @@
       <c r="F11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>60</v>
+      <c r="G11" s="8">
+        <v>300</v>
       </c>
       <c r="H11" s="8">
-        <v>1000007</v>
+        <v>400</v>
       </c>
       <c r="I11" s="8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J11" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K11" s="8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L11" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N11" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O11" s="8">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="P11" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="8">
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <v>5</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>1000010</v>
       </c>
@@ -7342,50 +7010,44 @@
       <c r="F12" s="17">
         <v>0</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>61</v>
+      <c r="G12" s="15">
+        <v>300</v>
       </c>
       <c r="H12" s="15">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I12" s="15">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="J12" s="15">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="K12" s="15">
-        <v>1.2</v>
+        <v>110</v>
       </c>
       <c r="L12" s="15">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="M12" s="15">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="N12" s="15">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="O12" s="15">
-        <v>15</v>
+        <v>650</v>
       </c>
       <c r="P12" s="15">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="15">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="R12" s="15">
-        <v>1</v>
-      </c>
-      <c r="S12" s="15">
-        <v>0</v>
-      </c>
-      <c r="T12" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>1000011</v>
       </c>
@@ -7406,50 +7068,44 @@
       <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>62</v>
+      <c r="G13" s="8">
+        <v>300</v>
       </c>
       <c r="H13" s="8">
-        <v>1000010</v>
+        <v>400</v>
       </c>
       <c r="I13" s="8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J13" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K13" s="8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L13" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N13" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O13" s="8">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="P13" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="8">
         <v>0</v>
       </c>
       <c r="R13" s="8">
-        <v>3</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1000012</v>
       </c>
@@ -7470,50 +7126,44 @@
       <c r="F14" s="8">
         <v>2</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>63</v>
+      <c r="G14" s="8">
+        <v>300</v>
       </c>
       <c r="H14" s="8">
-        <v>1000010</v>
+        <v>400</v>
       </c>
       <c r="I14" s="8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J14" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K14" s="8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L14" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N14" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O14" s="8">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="P14" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="8">
         <v>0</v>
       </c>
       <c r="R14" s="8">
-        <v>5</v>
-      </c>
-      <c r="S14" s="8">
-        <v>0</v>
-      </c>
-      <c r="T14" s="8">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>1000013</v>
       </c>
@@ -7534,50 +7184,44 @@
       <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>64</v>
+      <c r="G15" s="15">
+        <v>650</v>
       </c>
       <c r="H15" s="15">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I15" s="15">
-        <v>650</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J15" s="15">
-        <v>750</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="15">
-        <v>1.1000000000000001</v>
+        <v>70</v>
       </c>
       <c r="L15" s="15">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="15">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N15" s="15">
-        <v>2</v>
+        <v>3300</v>
       </c>
       <c r="O15" s="15">
-        <v>15</v>
+        <v>3300</v>
       </c>
       <c r="P15" s="15">
-        <v>3300</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="15">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="R15" s="15">
-        <v>1</v>
-      </c>
-      <c r="S15" s="15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>1000014</v>
       </c>
@@ -7598,50 +7242,44 @@
       <c r="F16" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>65</v>
+      <c r="G16" s="8">
+        <v>650</v>
       </c>
       <c r="H16" s="8">
-        <v>1000013</v>
+        <v>750</v>
       </c>
       <c r="I16" s="8">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J16" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K16" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L16" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N16" s="8">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="O16" s="8">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="P16" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="8">
         <v>0</v>
       </c>
       <c r="R16" s="8">
-        <v>2</v>
-      </c>
-      <c r="S16" s="8">
-        <v>0</v>
-      </c>
-      <c r="T16" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1000015</v>
       </c>
@@ -7662,50 +7300,44 @@
       <c r="F17" s="8">
         <v>2</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>66</v>
+      <c r="G17" s="8">
+        <v>650</v>
       </c>
       <c r="H17" s="8">
-        <v>1000013</v>
+        <v>750</v>
       </c>
       <c r="I17" s="8">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J17" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K17" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L17" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N17" s="8">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="O17" s="8">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="P17" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="8">
         <v>0</v>
       </c>
       <c r="R17" s="8">
-        <v>4</v>
-      </c>
-      <c r="S17" s="8">
-        <v>0</v>
-      </c>
-      <c r="T17" s="8">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>1000016</v>
       </c>
@@ -7726,50 +7358,44 @@
       <c r="F18" s="8">
         <v>0</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>67</v>
+      <c r="G18" s="15">
+        <v>650</v>
       </c>
       <c r="H18" s="15">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I18" s="15">
-        <v>650</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J18" s="15">
-        <v>750</v>
+        <v>0.1</v>
       </c>
       <c r="K18" s="15">
-        <v>1.1000000000000001</v>
+        <v>70</v>
       </c>
       <c r="L18" s="15">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="15">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N18" s="15">
-        <v>2</v>
+        <v>3300</v>
       </c>
       <c r="O18" s="15">
-        <v>15</v>
+        <v>3300</v>
       </c>
       <c r="P18" s="15">
-        <v>3300</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="15">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="R18" s="15">
-        <v>1</v>
-      </c>
-      <c r="S18" s="15">
-        <v>0</v>
-      </c>
-      <c r="T18" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>1000017</v>
       </c>
@@ -7790,50 +7416,44 @@
       <c r="F19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>68</v>
+      <c r="G19" s="8">
+        <v>650</v>
       </c>
       <c r="H19" s="8">
-        <v>1000016</v>
+        <v>750</v>
       </c>
       <c r="I19" s="8">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J19" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K19" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L19" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N19" s="8">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="O19" s="8">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="P19" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="8">
         <v>0</v>
       </c>
       <c r="R19" s="8">
-        <v>2</v>
-      </c>
-      <c r="S19" s="8">
-        <v>0</v>
-      </c>
-      <c r="T19" s="8">
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>1000018</v>
       </c>
@@ -7854,50 +7474,44 @@
       <c r="F20" s="8">
         <v>2</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>69</v>
+      <c r="G20" s="8">
+        <v>650</v>
       </c>
       <c r="H20" s="8">
-        <v>1000016</v>
+        <v>750</v>
       </c>
       <c r="I20" s="8">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J20" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K20" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L20" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N20" s="8">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="O20" s="8">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="P20" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="8">
         <v>0</v>
       </c>
       <c r="R20" s="8">
-        <v>3</v>
-      </c>
-      <c r="S20" s="8">
-        <v>0</v>
-      </c>
-      <c r="T20" s="8">
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>1000019</v>
       </c>
@@ -7918,50 +7532,44 @@
       <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>70</v>
+      <c r="G21" s="15">
+        <v>1800</v>
       </c>
       <c r="H21" s="15">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I21" s="15">
-        <v>1800</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J21" s="15">
-        <v>2000</v>
+        <v>0.3</v>
       </c>
       <c r="K21" s="15">
-        <v>2.2000000000000002</v>
+        <v>130</v>
       </c>
       <c r="L21" s="15">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M21" s="15">
+        <v>10</v>
+      </c>
+      <c r="N21" s="15">
+        <v>1700</v>
+      </c>
+      <c r="O21" s="15">
+        <v>1700</v>
+      </c>
+      <c r="P21" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>0</v>
+      </c>
+      <c r="R21" s="15">
         <v>130</v>
       </c>
-      <c r="N21" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="O21" s="15">
-        <v>10</v>
-      </c>
-      <c r="P21" s="15">
-        <v>1700</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>1700</v>
-      </c>
-      <c r="R21" s="15">
-        <v>1</v>
-      </c>
-      <c r="S21" s="15">
-        <v>0</v>
-      </c>
-      <c r="T21" s="15">
-        <v>130</v>
-      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>1000020</v>
       </c>
@@ -7982,50 +7590,44 @@
       <c r="F22" s="8">
         <v>2</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>71</v>
+      <c r="G22" s="8">
+        <v>1800</v>
       </c>
       <c r="H22" s="8">
-        <v>1000019</v>
+        <v>2000</v>
       </c>
       <c r="I22" s="8">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J22" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K22" s="8">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L22" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M22" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N22" s="8">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="O22" s="8">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="P22" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="8">
         <v>0</v>
       </c>
       <c r="R22" s="8">
-        <v>2</v>
-      </c>
-      <c r="S22" s="8">
-        <v>0</v>
-      </c>
-      <c r="T22" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>1000021</v>
       </c>
@@ -8046,50 +7648,44 @@
       <c r="F23" s="8">
         <v>3</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>72</v>
+      <c r="G23" s="8">
+        <v>1800</v>
       </c>
       <c r="H23" s="8">
-        <v>1000019</v>
+        <v>2000</v>
       </c>
       <c r="I23" s="8">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J23" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K23" s="8">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L23" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M23" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N23" s="8">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="O23" s="8">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="P23" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="8">
         <v>0</v>
       </c>
       <c r="R23" s="8">
-        <v>3</v>
-      </c>
-      <c r="S23" s="8">
-        <v>0</v>
-      </c>
-      <c r="T23" s="8">
         <v>546</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>1000022</v>
       </c>
@@ -8110,50 +7706,44 @@
       <c r="F24" s="8">
         <v>1</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>73</v>
+      <c r="G24" s="15">
+        <v>0</v>
       </c>
       <c r="H24" s="15">
         <v>0</v>
       </c>
       <c r="I24" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J24" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K24" s="15">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="L24" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="15">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="N24" s="15">
+        <v>2500</v>
+      </c>
+      <c r="O24" s="15">
+        <v>2500</v>
+      </c>
+      <c r="P24" s="15">
         <v>1</v>
       </c>
-      <c r="O24" s="15">
-        <v>2</v>
-      </c>
-      <c r="P24" s="15">
-        <v>2500</v>
-      </c>
       <c r="Q24" s="15">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="R24" s="15">
-        <v>1</v>
-      </c>
-      <c r="S24" s="15">
-        <v>0</v>
-      </c>
-      <c r="T24" s="15">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>1000023</v>
       </c>
@@ -8174,50 +7764,44 @@
       <c r="F25" s="8">
         <v>2</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>74</v>
+      <c r="G25" s="8">
+        <v>0</v>
       </c>
       <c r="H25" s="8">
-        <v>1000022</v>
+        <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J25" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K25" s="8">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O25" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="P25" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="8">
         <v>0</v>
       </c>
       <c r="R25" s="8">
-        <v>2</v>
-      </c>
-      <c r="S25" s="8">
-        <v>0</v>
-      </c>
-      <c r="T25" s="8">
         <v>396</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>1000024</v>
       </c>
@@ -8238,50 +7822,44 @@
       <c r="F26" s="8">
         <v>1</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>75</v>
+      <c r="G26" s="15">
+        <v>0</v>
       </c>
       <c r="H26" s="15">
         <v>0</v>
       </c>
       <c r="I26" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K26" s="15">
+        <v>110</v>
+      </c>
+      <c r="L26" s="15">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15">
         <v>3</v>
       </c>
-      <c r="L26" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="M26" s="15">
-        <v>110</v>
-      </c>
       <c r="N26" s="15">
+        <v>3000</v>
+      </c>
+      <c r="O26" s="15">
+        <v>3000</v>
+      </c>
+      <c r="P26" s="15">
         <v>1</v>
       </c>
-      <c r="O26" s="15">
-        <v>3</v>
-      </c>
-      <c r="P26" s="15">
-        <v>3000</v>
-      </c>
       <c r="Q26" s="15">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R26" s="15">
-        <v>1</v>
-      </c>
-      <c r="S26" s="15">
-        <v>0</v>
-      </c>
-      <c r="T26" s="15">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>1000025</v>
       </c>
@@ -8302,50 +7880,44 @@
       <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1000024</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8">
-        <v>0</v>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
+        <v>3</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K27" s="20">
+        <v>110</v>
+      </c>
+      <c r="L27" s="20">
+        <v>1</v>
+      </c>
+      <c r="M27" s="20">
+        <v>3</v>
+      </c>
+      <c r="N27" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O27" s="20">
+        <v>3000</v>
       </c>
       <c r="P27" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="8">
         <v>0</v>
       </c>
       <c r="R27" s="8">
-        <v>2</v>
-      </c>
-      <c r="S27" s="8">
-        <v>0</v>
-      </c>
-      <c r="T27" s="8">
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>1000026</v>
       </c>
@@ -8366,50 +7938,44 @@
       <c r="F28" s="8">
         <v>1</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>75</v>
+      <c r="G28" s="15">
+        <v>0</v>
       </c>
       <c r="H28" s="15">
         <v>0</v>
       </c>
       <c r="I28" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K28" s="15">
+        <v>110</v>
+      </c>
+      <c r="L28" s="15">
+        <v>1</v>
+      </c>
+      <c r="M28" s="15">
         <v>3</v>
       </c>
-      <c r="L28" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="M28" s="15">
-        <v>110</v>
-      </c>
       <c r="N28" s="15">
+        <v>3000</v>
+      </c>
+      <c r="O28" s="15">
+        <v>3000</v>
+      </c>
+      <c r="P28" s="15">
         <v>1</v>
       </c>
-      <c r="O28" s="15">
-        <v>3</v>
-      </c>
-      <c r="P28" s="15">
-        <v>3000</v>
-      </c>
       <c r="Q28" s="15">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R28" s="15">
-        <v>1</v>
-      </c>
-      <c r="S28" s="15">
-        <v>0</v>
-      </c>
-      <c r="T28" s="15">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>1000027</v>
       </c>
@@ -8430,50 +7996,44 @@
       <c r="F29" s="8">
         <v>2</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1000026</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="M29" s="8">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8">
-        <v>0</v>
+      <c r="G29" s="20">
+        <v>0</v>
+      </c>
+      <c r="H29" s="20">
+        <v>0</v>
+      </c>
+      <c r="I29" s="20">
+        <v>3</v>
+      </c>
+      <c r="J29" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K29" s="20">
+        <v>110</v>
+      </c>
+      <c r="L29" s="20">
+        <v>1</v>
+      </c>
+      <c r="M29" s="20">
+        <v>3</v>
+      </c>
+      <c r="N29" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O29" s="20">
+        <v>3000</v>
       </c>
       <c r="P29" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="8">
         <v>0</v>
       </c>
       <c r="R29" s="8">
-        <v>2</v>
-      </c>
-      <c r="S29" s="8">
-        <v>0</v>
-      </c>
-      <c r="T29" s="8">
         <v>396</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>1000028</v>
       </c>
@@ -8494,50 +8054,44 @@
       <c r="F30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>77</v>
+      <c r="G30" s="15">
+        <v>0</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
       </c>
       <c r="I30" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J30" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K30" s="15">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="L30" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M30" s="15">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="N30" s="15">
+        <v>3500</v>
+      </c>
+      <c r="O30" s="15">
+        <v>3500</v>
+      </c>
+      <c r="P30" s="15">
         <v>1</v>
       </c>
-      <c r="O30" s="15">
-        <v>3</v>
-      </c>
-      <c r="P30" s="15">
-        <v>3500</v>
-      </c>
       <c r="Q30" s="15">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="R30" s="15">
-        <v>1</v>
-      </c>
-      <c r="S30" s="15">
-        <v>0</v>
-      </c>
-      <c r="T30" s="15">
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>1000029</v>
       </c>
@@ -8558,50 +8112,44 @@
       <c r="F31" s="8">
         <v>2</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1000028</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0</v>
-      </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0</v>
+      <c r="G31" s="20">
+        <v>0</v>
+      </c>
+      <c r="H31" s="20">
+        <v>0</v>
+      </c>
+      <c r="I31" s="20">
+        <v>8</v>
+      </c>
+      <c r="J31" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K31" s="20">
+        <v>110</v>
+      </c>
+      <c r="L31" s="20">
+        <v>1</v>
+      </c>
+      <c r="M31" s="20">
+        <v>3</v>
+      </c>
+      <c r="N31" s="20">
+        <v>3500</v>
+      </c>
+      <c r="O31" s="20">
+        <v>3500</v>
       </c>
       <c r="P31" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="8">
         <v>0</v>
       </c>
       <c r="R31" s="8">
-        <v>2</v>
-      </c>
-      <c r="S31" s="8">
-        <v>0</v>
-      </c>
-      <c r="T31" s="8">
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>1000030</v>
       </c>
@@ -8622,50 +8170,44 @@
       <c r="F32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="15" t="s">
-        <v>79</v>
+      <c r="G32" s="15">
+        <v>3000</v>
       </c>
       <c r="H32" s="15">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="I32" s="15">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="J32" s="15">
-        <v>3400</v>
+        <v>0.2</v>
       </c>
       <c r="K32" s="15">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="L32" s="15">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="M32" s="15">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N32" s="15">
-        <v>2</v>
+        <v>5500</v>
       </c>
       <c r="O32" s="15">
-        <v>20</v>
+        <v>5500</v>
       </c>
       <c r="P32" s="15">
-        <v>5500</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="15">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="R32" s="15">
-        <v>1</v>
-      </c>
-      <c r="S32" s="15">
-        <v>0</v>
-      </c>
-      <c r="T32" s="15">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>1000031</v>
       </c>
@@ -8686,50 +8228,44 @@
       <c r="F33" s="8">
         <v>2</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1000030</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0</v>
-      </c>
-      <c r="M33" s="8">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <v>0</v>
+      <c r="G33" s="20">
+        <v>3000</v>
+      </c>
+      <c r="H33" s="20">
+        <v>3400</v>
+      </c>
+      <c r="I33" s="20">
+        <v>3</v>
+      </c>
+      <c r="J33" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K33" s="20">
+        <v>70</v>
+      </c>
+      <c r="L33" s="20">
+        <v>2</v>
+      </c>
+      <c r="M33" s="20">
+        <v>20</v>
+      </c>
+      <c r="N33" s="20">
+        <v>5500</v>
+      </c>
+      <c r="O33" s="20">
+        <v>5500</v>
       </c>
       <c r="P33" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="8">
         <v>0</v>
       </c>
       <c r="R33" s="8">
-        <v>2</v>
-      </c>
-      <c r="S33" s="8">
-        <v>0</v>
-      </c>
-      <c r="T33" s="8">
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>1000032</v>
       </c>
@@ -8750,50 +8286,44 @@
       <c r="F34" s="8">
         <v>3</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1000030</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0</v>
-      </c>
-      <c r="K34" s="8">
-        <v>0</v>
-      </c>
-      <c r="L34" s="8">
-        <v>0</v>
-      </c>
-      <c r="M34" s="8">
-        <v>0</v>
-      </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
-      <c r="O34" s="8">
-        <v>0</v>
+      <c r="G34" s="20">
+        <v>3000</v>
+      </c>
+      <c r="H34" s="20">
+        <v>3400</v>
+      </c>
+      <c r="I34" s="20">
+        <v>3</v>
+      </c>
+      <c r="J34" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K34" s="20">
+        <v>70</v>
+      </c>
+      <c r="L34" s="20">
+        <v>2</v>
+      </c>
+      <c r="M34" s="20">
+        <v>20</v>
+      </c>
+      <c r="N34" s="20">
+        <v>5500</v>
+      </c>
+      <c r="O34" s="20">
+        <v>5500</v>
       </c>
       <c r="P34" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="8">
         <v>0</v>
       </c>
       <c r="R34" s="8">
-        <v>3</v>
-      </c>
-      <c r="S34" s="8">
-        <v>0</v>
-      </c>
-      <c r="T34" s="8">
         <v>693</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>1000033</v>
       </c>
@@ -8814,50 +8344,44 @@
       <c r="F35" s="8">
         <v>1</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>82</v>
+      <c r="G35" s="15">
+        <v>1400</v>
       </c>
       <c r="H35" s="15">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I35" s="15">
-        <v>1400</v>
+        <v>3</v>
       </c>
       <c r="J35" s="15">
-        <v>1500</v>
+        <v>0.2</v>
       </c>
       <c r="K35" s="15">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="L35" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M35" s="15">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="N35" s="15">
+        <v>1300</v>
+      </c>
+      <c r="O35" s="15">
+        <v>1300</v>
+      </c>
+      <c r="P35" s="15">
         <v>1</v>
       </c>
-      <c r="O35" s="15">
-        <v>10</v>
-      </c>
-      <c r="P35" s="15">
-        <v>1300</v>
-      </c>
       <c r="Q35" s="15">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="R35" s="15">
-        <v>1</v>
-      </c>
-      <c r="S35" s="15">
-        <v>0</v>
-      </c>
-      <c r="T35" s="15">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>1000034</v>
       </c>
@@ -8878,50 +8402,44 @@
       <c r="F36" s="8">
         <v>2</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1000033</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0</v>
-      </c>
-      <c r="K36" s="8">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
-        <v>0</v>
+      <c r="G36" s="20">
+        <v>1400</v>
+      </c>
+      <c r="H36" s="20">
+        <v>1500</v>
+      </c>
+      <c r="I36" s="20">
+        <v>3</v>
+      </c>
+      <c r="J36" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K36" s="20">
+        <v>110</v>
+      </c>
+      <c r="L36" s="20">
+        <v>1</v>
+      </c>
+      <c r="M36" s="20">
+        <v>10</v>
+      </c>
+      <c r="N36" s="20">
+        <v>1300</v>
+      </c>
+      <c r="O36" s="20">
+        <v>1300</v>
       </c>
       <c r="P36" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="8">
         <v>0</v>
       </c>
       <c r="R36" s="8">
-        <v>2</v>
-      </c>
-      <c r="S36" s="8">
-        <v>0</v>
-      </c>
-      <c r="T36" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>1000035</v>
       </c>
@@ -8942,50 +8460,44 @@
       <c r="F37" s="8">
         <v>3</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="8">
-        <v>1000033</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="8">
-        <v>0</v>
-      </c>
-      <c r="M37" s="8">
-        <v>0</v>
-      </c>
-      <c r="N37" s="8">
-        <v>0</v>
-      </c>
-      <c r="O37" s="8">
-        <v>0</v>
+      <c r="G37" s="20">
+        <v>1400</v>
+      </c>
+      <c r="H37" s="20">
+        <v>1500</v>
+      </c>
+      <c r="I37" s="20">
+        <v>3</v>
+      </c>
+      <c r="J37" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K37" s="20">
+        <v>110</v>
+      </c>
+      <c r="L37" s="20">
+        <v>1</v>
+      </c>
+      <c r="M37" s="20">
+        <v>10</v>
+      </c>
+      <c r="N37" s="20">
+        <v>1300</v>
+      </c>
+      <c r="O37" s="20">
+        <v>1300</v>
       </c>
       <c r="P37" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="8">
         <v>0</v>
       </c>
       <c r="R37" s="8">
-        <v>3</v>
-      </c>
-      <c r="S37" s="8">
-        <v>0</v>
-      </c>
-      <c r="T37" s="8">
         <v>546</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>1000036</v>
       </c>
@@ -9006,50 +8518,44 @@
       <c r="F38" s="8">
         <v>2</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>85</v>
+      <c r="G38" s="15">
+        <v>600</v>
       </c>
       <c r="H38" s="15">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I38" s="15">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="J38" s="15">
-        <v>700</v>
+        <v>0.2</v>
       </c>
       <c r="K38" s="15">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L38" s="15">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M38" s="15">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="N38" s="15">
-        <v>0.5</v>
+        <v>1200</v>
       </c>
       <c r="O38" s="15">
-        <v>7</v>
+        <v>1200</v>
       </c>
       <c r="P38" s="15">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="15">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="R38" s="15">
-        <v>1</v>
-      </c>
-      <c r="S38" s="15">
-        <v>0</v>
-      </c>
-      <c r="T38" s="15">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>1000037</v>
       </c>
@@ -9070,50 +8576,44 @@
       <c r="F39" s="8">
         <v>3</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1000036</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <v>0</v>
-      </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
-      <c r="L39" s="8">
-        <v>0</v>
-      </c>
-      <c r="M39" s="8">
-        <v>0</v>
-      </c>
-      <c r="N39" s="8">
-        <v>0</v>
-      </c>
-      <c r="O39" s="8">
-        <v>0</v>
+      <c r="G39" s="20">
+        <v>600</v>
+      </c>
+      <c r="H39" s="20">
+        <v>700</v>
+      </c>
+      <c r="I39" s="20">
+        <v>5</v>
+      </c>
+      <c r="J39" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K39" s="20">
+        <v>100</v>
+      </c>
+      <c r="L39" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M39" s="20">
+        <v>7</v>
+      </c>
+      <c r="N39" s="20">
+        <v>1200</v>
+      </c>
+      <c r="O39" s="20">
+        <v>1200</v>
       </c>
       <c r="P39" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="8">
         <v>0</v>
       </c>
       <c r="R39" s="8">
-        <v>2</v>
-      </c>
-      <c r="S39" s="8">
-        <v>0</v>
-      </c>
-      <c r="T39" s="8">
         <v>396</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>1000038</v>
       </c>
@@ -9134,50 +8634,44 @@
       <c r="F40" s="8">
         <v>4</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" s="8">
-        <v>1000036</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
-        <v>0</v>
-      </c>
-      <c r="K40" s="8">
-        <v>0</v>
-      </c>
-      <c r="L40" s="8">
-        <v>0</v>
-      </c>
-      <c r="M40" s="8">
-        <v>0</v>
-      </c>
-      <c r="N40" s="8">
-        <v>0</v>
-      </c>
-      <c r="O40" s="8">
-        <v>0</v>
+      <c r="G40" s="20">
+        <v>600</v>
+      </c>
+      <c r="H40" s="20">
+        <v>700</v>
+      </c>
+      <c r="I40" s="20">
+        <v>5</v>
+      </c>
+      <c r="J40" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K40" s="20">
+        <v>100</v>
+      </c>
+      <c r="L40" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M40" s="20">
+        <v>7</v>
+      </c>
+      <c r="N40" s="20">
+        <v>1200</v>
+      </c>
+      <c r="O40" s="20">
+        <v>1200</v>
       </c>
       <c r="P40" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q40" s="8">
         <v>0</v>
       </c>
       <c r="R40" s="8">
-        <v>3</v>
-      </c>
-      <c r="S40" s="8">
-        <v>0</v>
-      </c>
-      <c r="T40" s="8">
         <v>693</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>1000039</v>
       </c>
@@ -9198,50 +8692,44 @@
       <c r="F41" s="8">
         <v>2</v>
       </c>
-      <c r="G41" s="15" t="s">
-        <v>88</v>
+      <c r="G41" s="15">
+        <v>300</v>
       </c>
       <c r="H41" s="15">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I41" s="15">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="J41" s="15">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="K41" s="15">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="L41" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M41" s="15">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="N41" s="15">
+        <v>3000</v>
+      </c>
+      <c r="O41" s="15">
+        <v>3000</v>
+      </c>
+      <c r="P41" s="15">
         <v>1</v>
       </c>
-      <c r="O41" s="15">
-        <v>5</v>
-      </c>
-      <c r="P41" s="15">
-        <v>3000</v>
-      </c>
       <c r="Q41" s="15">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R41" s="15">
-        <v>1</v>
-      </c>
-      <c r="S41" s="15">
-        <v>0</v>
-      </c>
-      <c r="T41" s="15">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>1000040</v>
       </c>
@@ -9262,50 +8750,44 @@
       <c r="F42" s="8">
         <v>3</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H42" s="8">
-        <v>1000039</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
-      <c r="L42" s="8">
-        <v>0</v>
-      </c>
-      <c r="M42" s="8">
-        <v>0</v>
-      </c>
-      <c r="N42" s="8">
-        <v>0</v>
-      </c>
-      <c r="O42" s="8">
-        <v>0</v>
+      <c r="G42" s="20">
+        <v>300</v>
+      </c>
+      <c r="H42" s="20">
+        <v>400</v>
+      </c>
+      <c r="I42" s="20">
+        <v>3</v>
+      </c>
+      <c r="J42" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K42" s="20">
+        <v>80</v>
+      </c>
+      <c r="L42" s="20">
+        <v>1</v>
+      </c>
+      <c r="M42" s="20">
+        <v>5</v>
+      </c>
+      <c r="N42" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O42" s="20">
+        <v>3000</v>
       </c>
       <c r="P42" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="8">
         <v>0</v>
       </c>
       <c r="R42" s="8">
-        <v>2</v>
-      </c>
-      <c r="S42" s="8">
-        <v>0</v>
-      </c>
-      <c r="T42" s="8">
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>1000041</v>
       </c>
@@ -9326,50 +8808,44 @@
       <c r="F43" s="8">
         <v>4</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="8">
-        <v>1000039</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0</v>
-      </c>
-      <c r="K43" s="8">
-        <v>0</v>
-      </c>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="M43" s="8">
-        <v>0</v>
-      </c>
-      <c r="N43" s="8">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8">
-        <v>0</v>
+      <c r="G43" s="20">
+        <v>300</v>
+      </c>
+      <c r="H43" s="20">
+        <v>400</v>
+      </c>
+      <c r="I43" s="20">
+        <v>3</v>
+      </c>
+      <c r="J43" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K43" s="20">
+        <v>80</v>
+      </c>
+      <c r="L43" s="20">
+        <v>1</v>
+      </c>
+      <c r="M43" s="20">
+        <v>5</v>
+      </c>
+      <c r="N43" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O43" s="20">
+        <v>3000</v>
       </c>
       <c r="P43" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="8">
         <v>0</v>
       </c>
       <c r="R43" s="8">
-        <v>3</v>
-      </c>
-      <c r="S43" s="8">
-        <v>0</v>
-      </c>
-      <c r="T43" s="8">
         <v>693</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>1000042</v>
       </c>
@@ -9390,50 +8866,44 @@
       <c r="F44" s="8">
         <v>0</v>
       </c>
-      <c r="G44" s="15" t="s">
-        <v>91</v>
+      <c r="G44" s="15">
+        <v>150</v>
       </c>
       <c r="H44" s="15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I44" s="15">
-        <v>150</v>
+        <v>0.3</v>
       </c>
       <c r="J44" s="15">
-        <v>200</v>
+        <v>0.05</v>
       </c>
       <c r="K44" s="15">
-        <v>0.3</v>
+        <v>80</v>
       </c>
       <c r="L44" s="15">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="M44" s="15">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="N44" s="15">
-        <v>4</v>
+        <v>3000</v>
       </c>
       <c r="O44" s="15">
-        <v>4</v>
+        <v>3500</v>
       </c>
       <c r="P44" s="15">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="15">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="R44" s="15">
-        <v>1</v>
-      </c>
-      <c r="S44" s="15">
-        <v>0</v>
-      </c>
-      <c r="T44" s="15">
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>1000043</v>
       </c>
@@ -9454,50 +8924,44 @@
       <c r="F45" s="8">
         <v>1</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45" s="8">
-        <v>1000042</v>
-      </c>
-      <c r="I45" s="8">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0</v>
-      </c>
-      <c r="K45" s="8">
-        <v>0</v>
-      </c>
-      <c r="L45" s="8">
-        <v>0</v>
-      </c>
-      <c r="M45" s="8">
-        <v>0</v>
-      </c>
-      <c r="N45" s="8">
-        <v>0</v>
-      </c>
-      <c r="O45" s="8">
-        <v>0</v>
+      <c r="G45" s="20">
+        <v>150</v>
+      </c>
+      <c r="H45" s="20">
+        <v>200</v>
+      </c>
+      <c r="I45" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="J45" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="K45" s="20">
+        <v>80</v>
+      </c>
+      <c r="L45" s="20">
+        <v>4</v>
+      </c>
+      <c r="M45" s="20">
+        <v>4</v>
+      </c>
+      <c r="N45" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O45" s="20">
+        <v>3500</v>
       </c>
       <c r="P45" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="8">
         <v>0</v>
       </c>
       <c r="R45" s="8">
-        <v>2</v>
-      </c>
-      <c r="S45" s="8">
-        <v>0</v>
-      </c>
-      <c r="T45" s="8">
         <v>432</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>1000044</v>
       </c>
@@ -9518,50 +8982,44 @@
       <c r="F46" s="8">
         <v>2</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" s="8">
-        <v>1000042</v>
-      </c>
-      <c r="I46" s="8">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
-        <v>0</v>
-      </c>
-      <c r="K46" s="8">
-        <v>0</v>
-      </c>
-      <c r="L46" s="8">
-        <v>0</v>
-      </c>
-      <c r="M46" s="8">
-        <v>0</v>
-      </c>
-      <c r="N46" s="8">
-        <v>0</v>
-      </c>
-      <c r="O46" s="8">
-        <v>0</v>
+      <c r="G46" s="20">
+        <v>150</v>
+      </c>
+      <c r="H46" s="20">
+        <v>200</v>
+      </c>
+      <c r="I46" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="J46" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="K46" s="20">
+        <v>80</v>
+      </c>
+      <c r="L46" s="20">
+        <v>4</v>
+      </c>
+      <c r="M46" s="20">
+        <v>4</v>
+      </c>
+      <c r="N46" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O46" s="20">
+        <v>3500</v>
       </c>
       <c r="P46" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="8">
         <v>0</v>
       </c>
       <c r="R46" s="8">
-        <v>3</v>
-      </c>
-      <c r="S46" s="8">
-        <v>0</v>
-      </c>
-      <c r="T46" s="8">
         <v>756</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>1000045</v>
       </c>
@@ -9582,50 +9040,44 @@
       <c r="F47" s="8">
         <v>0</v>
       </c>
-      <c r="G47" s="15" t="s">
-        <v>94</v>
+      <c r="G47" s="15">
+        <v>200</v>
       </c>
       <c r="H47" s="15">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I47" s="15">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="J47" s="15">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="K47" s="15">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="L47" s="15">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M47" s="15">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="N47" s="15">
-        <v>0.3</v>
+        <v>5000</v>
       </c>
       <c r="O47" s="15">
-        <v>5</v>
+        <v>15000</v>
       </c>
       <c r="P47" s="15">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="15">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="R47" s="15">
-        <v>1</v>
-      </c>
-      <c r="S47" s="15">
-        <v>0</v>
-      </c>
-      <c r="T47" s="15">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>1000046</v>
       </c>
@@ -9646,50 +9098,44 @@
       <c r="F48" s="8">
         <v>1</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H48" s="8">
-        <v>1000045</v>
-      </c>
-      <c r="I48" s="8">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
-        <v>0</v>
-      </c>
-      <c r="K48" s="8">
-        <v>0</v>
-      </c>
-      <c r="L48" s="8">
-        <v>0</v>
-      </c>
-      <c r="M48" s="8">
-        <v>0</v>
-      </c>
-      <c r="N48" s="8">
-        <v>0</v>
-      </c>
-      <c r="O48" s="8">
-        <v>0</v>
+      <c r="G48" s="20">
+        <v>200</v>
+      </c>
+      <c r="H48" s="20">
+        <v>400</v>
+      </c>
+      <c r="I48" s="20">
+        <v>3</v>
+      </c>
+      <c r="J48" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K48" s="20">
+        <v>60</v>
+      </c>
+      <c r="L48" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="M48" s="20">
+        <v>5</v>
+      </c>
+      <c r="N48" s="20">
+        <v>5000</v>
+      </c>
+      <c r="O48" s="20">
+        <v>15000</v>
       </c>
       <c r="P48" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="8">
         <v>0</v>
       </c>
       <c r="R48" s="8">
-        <v>2</v>
-      </c>
-      <c r="S48" s="8">
-        <v>0</v>
-      </c>
-      <c r="T48" s="8">
         <v>396</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>1000047</v>
       </c>
@@ -9710,50 +9156,44 @@
       <c r="F49" s="8">
         <v>0</v>
       </c>
-      <c r="G49" s="15" t="s">
-        <v>96</v>
+      <c r="G49" s="15">
+        <v>500</v>
       </c>
       <c r="H49" s="15">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I49" s="15">
-        <v>500</v>
+        <v>1.7</v>
       </c>
       <c r="J49" s="15">
-        <v>700</v>
+        <v>0.2</v>
       </c>
       <c r="K49" s="15">
-        <v>1.7</v>
+        <v>80</v>
       </c>
       <c r="L49" s="15">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="M49" s="15">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="N49" s="15">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="O49" s="15">
-        <v>3</v>
+        <v>9000</v>
       </c>
       <c r="P49" s="15">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="15">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="R49" s="15">
-        <v>1</v>
-      </c>
-      <c r="S49" s="15">
-        <v>0</v>
-      </c>
-      <c r="T49" s="15">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>1000048</v>
       </c>
@@ -9774,50 +9214,44 @@
       <c r="F50" s="8">
         <v>1</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" s="8">
-        <v>1000047</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-      <c r="K50" s="8">
-        <v>0</v>
-      </c>
-      <c r="L50" s="8">
-        <v>0</v>
-      </c>
-      <c r="M50" s="8">
-        <v>0</v>
-      </c>
-      <c r="N50" s="8">
-        <v>0</v>
-      </c>
-      <c r="O50" s="8">
-        <v>0</v>
+      <c r="G50" s="20">
+        <v>500</v>
+      </c>
+      <c r="H50" s="20">
+        <v>700</v>
+      </c>
+      <c r="I50" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="J50" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K50" s="20">
+        <v>80</v>
+      </c>
+      <c r="L50" s="20">
+        <v>2</v>
+      </c>
+      <c r="M50" s="20">
+        <v>3</v>
+      </c>
+      <c r="N50" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O50" s="20">
+        <v>9000</v>
       </c>
       <c r="P50" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="8">
         <v>0</v>
       </c>
       <c r="R50" s="8">
-        <v>2</v>
-      </c>
-      <c r="S50" s="8">
-        <v>0</v>
-      </c>
-      <c r="T50" s="8">
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>1000049</v>
       </c>
@@ -9838,50 +9272,44 @@
       <c r="F51" s="8">
         <v>1</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>98</v>
+      <c r="G51" s="15">
+        <v>100</v>
       </c>
       <c r="H51" s="15">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I51" s="15">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="J51" s="15">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="K51" s="15">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="L51" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M51" s="15">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="N51" s="15">
+        <v>10000</v>
+      </c>
+      <c r="O51" s="15">
+        <v>10000</v>
+      </c>
+      <c r="P51" s="15">
         <v>1</v>
       </c>
-      <c r="O51" s="15">
-        <v>2</v>
-      </c>
-      <c r="P51" s="15">
-        <v>10000</v>
-      </c>
       <c r="Q51" s="15">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="R51" s="15">
-        <v>1</v>
-      </c>
-      <c r="S51" s="15">
-        <v>0</v>
-      </c>
-      <c r="T51" s="15">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>1000050</v>
       </c>
@@ -9902,50 +9330,44 @@
       <c r="F52" s="8">
         <v>2</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="8">
-        <v>1000049</v>
-      </c>
-      <c r="I52" s="8">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
-        <v>0</v>
-      </c>
-      <c r="K52" s="8">
-        <v>0</v>
-      </c>
-      <c r="L52" s="8">
-        <v>0</v>
-      </c>
-      <c r="M52" s="8">
-        <v>0</v>
-      </c>
-      <c r="N52" s="8">
-        <v>0</v>
-      </c>
-      <c r="O52" s="8">
-        <v>0</v>
+      <c r="G52" s="20">
+        <v>100</v>
+      </c>
+      <c r="H52" s="20">
+        <v>500</v>
+      </c>
+      <c r="I52" s="20">
+        <v>3</v>
+      </c>
+      <c r="J52" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K52" s="20">
+        <v>40</v>
+      </c>
+      <c r="L52" s="20">
+        <v>1</v>
+      </c>
+      <c r="M52" s="20">
+        <v>2</v>
+      </c>
+      <c r="N52" s="20">
+        <v>10000</v>
+      </c>
+      <c r="O52" s="20">
+        <v>10000</v>
       </c>
       <c r="P52" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q52" s="8">
         <v>0</v>
       </c>
       <c r="R52" s="8">
-        <v>2</v>
-      </c>
-      <c r="S52" s="8">
-        <v>0</v>
-      </c>
-      <c r="T52" s="8">
         <v>432</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>1000051</v>
       </c>
@@ -9966,50 +9388,44 @@
       <c r="F53" s="8">
         <v>2</v>
       </c>
-      <c r="G53" s="15" t="s">
-        <v>100</v>
+      <c r="G53" s="15">
+        <v>30</v>
       </c>
       <c r="H53" s="15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I53" s="15">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J53" s="15">
-        <v>35</v>
+        <v>0.2</v>
       </c>
       <c r="K53" s="15">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="L53" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M53" s="15">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="N53" s="15">
+        <v>3000</v>
+      </c>
+      <c r="O53" s="15">
+        <v>3000</v>
+      </c>
+      <c r="P53" s="15">
         <v>1</v>
       </c>
-      <c r="O53" s="15">
-        <v>7</v>
-      </c>
-      <c r="P53" s="15">
-        <v>3000</v>
-      </c>
       <c r="Q53" s="15">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R53" s="15">
-        <v>1</v>
-      </c>
-      <c r="S53" s="15">
-        <v>0</v>
-      </c>
-      <c r="T53" s="15">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>1000052</v>
       </c>
@@ -10030,50 +9446,44 @@
       <c r="F54" s="8">
         <v>3</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="8">
-        <v>1000051</v>
-      </c>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
-        <v>0</v>
-      </c>
-      <c r="K54" s="8">
-        <v>0</v>
-      </c>
-      <c r="L54" s="8">
-        <v>0</v>
-      </c>
-      <c r="M54" s="8">
-        <v>0</v>
-      </c>
-      <c r="N54" s="8">
-        <v>0</v>
-      </c>
-      <c r="O54" s="8">
-        <v>0</v>
+      <c r="G54" s="20">
+        <v>30</v>
+      </c>
+      <c r="H54" s="20">
+        <v>35</v>
+      </c>
+      <c r="I54" s="20">
+        <v>3</v>
+      </c>
+      <c r="J54" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K54" s="20">
+        <v>80</v>
+      </c>
+      <c r="L54" s="20">
+        <v>1</v>
+      </c>
+      <c r="M54" s="20">
+        <v>7</v>
+      </c>
+      <c r="N54" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O54" s="20">
+        <v>3000</v>
       </c>
       <c r="P54" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="8">
         <v>0</v>
       </c>
       <c r="R54" s="8">
-        <v>2</v>
-      </c>
-      <c r="S54" s="8">
-        <v>0</v>
-      </c>
-      <c r="T54" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>1000053</v>
       </c>
@@ -10094,50 +9504,44 @@
       <c r="F55" s="8">
         <v>4</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H55" s="8">
-        <v>1000051</v>
-      </c>
-      <c r="I55" s="8">
-        <v>0</v>
-      </c>
-      <c r="J55" s="8">
-        <v>0</v>
-      </c>
-      <c r="K55" s="8">
-        <v>0</v>
-      </c>
-      <c r="L55" s="8">
-        <v>0</v>
-      </c>
-      <c r="M55" s="8">
-        <v>0</v>
-      </c>
-      <c r="N55" s="8">
-        <v>0</v>
-      </c>
-      <c r="O55" s="8">
-        <v>0</v>
+      <c r="G55" s="20">
+        <v>30</v>
+      </c>
+      <c r="H55" s="20">
+        <v>35</v>
+      </c>
+      <c r="I55" s="20">
+        <v>3</v>
+      </c>
+      <c r="J55" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K55" s="20">
+        <v>80</v>
+      </c>
+      <c r="L55" s="20">
+        <v>1</v>
+      </c>
+      <c r="M55" s="20">
+        <v>7</v>
+      </c>
+      <c r="N55" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O55" s="20">
+        <v>3000</v>
       </c>
       <c r="P55" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q55" s="8">
         <v>0</v>
       </c>
       <c r="R55" s="8">
-        <v>3</v>
-      </c>
-      <c r="S55" s="8">
-        <v>0</v>
-      </c>
-      <c r="T55" s="8">
         <v>546</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>1000054</v>
       </c>
@@ -10158,50 +9562,44 @@
       <c r="F56" s="8">
         <v>1</v>
       </c>
-      <c r="G56" s="15" t="s">
-        <v>103</v>
+      <c r="G56" s="15">
+        <v>700</v>
       </c>
       <c r="H56" s="15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I56" s="15">
-        <v>700</v>
+        <v>5</v>
       </c>
       <c r="J56" s="15">
-        <v>1000</v>
+        <v>0.2</v>
       </c>
       <c r="K56" s="15">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="L56" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="15">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N56" s="15">
+        <v>735</v>
+      </c>
+      <c r="O56" s="15">
+        <v>735</v>
+      </c>
+      <c r="P56" s="15">
         <v>1</v>
       </c>
-      <c r="O56" s="15">
-        <v>10</v>
-      </c>
-      <c r="P56" s="15">
-        <v>735</v>
-      </c>
       <c r="Q56" s="15">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="R56" s="15">
-        <v>1</v>
-      </c>
-      <c r="S56" s="15">
-        <v>0</v>
-      </c>
-      <c r="T56" s="15">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>1000055</v>
       </c>
@@ -10222,50 +9620,44 @@
       <c r="F57" s="8">
         <v>2</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H57" s="8">
-        <v>1000054</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
-        <v>0</v>
-      </c>
-      <c r="K57" s="8">
-        <v>0</v>
-      </c>
-      <c r="L57" s="8">
-        <v>0</v>
-      </c>
-      <c r="M57" s="8">
-        <v>0</v>
-      </c>
-      <c r="N57" s="8">
-        <v>0</v>
-      </c>
-      <c r="O57" s="8">
-        <v>0</v>
+      <c r="G57" s="20">
+        <v>700</v>
+      </c>
+      <c r="H57" s="20">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="20">
+        <v>5</v>
+      </c>
+      <c r="J57" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K57" s="20">
+        <v>80</v>
+      </c>
+      <c r="L57" s="20">
+        <v>1</v>
+      </c>
+      <c r="M57" s="20">
+        <v>10</v>
+      </c>
+      <c r="N57" s="20">
+        <v>735</v>
+      </c>
+      <c r="O57" s="20">
+        <v>735</v>
       </c>
       <c r="P57" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="8">
         <v>0</v>
       </c>
       <c r="R57" s="8">
-        <v>2</v>
-      </c>
-      <c r="S57" s="8">
-        <v>0</v>
-      </c>
-      <c r="T57" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>1000056</v>
       </c>
@@ -10286,50 +9678,44 @@
       <c r="F58" s="8">
         <v>3</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="8">
-        <v>1000054</v>
-      </c>
-      <c r="I58" s="8">
-        <v>0</v>
-      </c>
-      <c r="J58" s="8">
-        <v>0</v>
-      </c>
-      <c r="K58" s="8">
-        <v>0</v>
-      </c>
-      <c r="L58" s="8">
-        <v>0</v>
-      </c>
-      <c r="M58" s="8">
-        <v>0</v>
-      </c>
-      <c r="N58" s="8">
-        <v>0</v>
-      </c>
-      <c r="O58" s="8">
-        <v>0</v>
+      <c r="G58" s="20">
+        <v>700</v>
+      </c>
+      <c r="H58" s="20">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="20">
+        <v>5</v>
+      </c>
+      <c r="J58" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K58" s="20">
+        <v>80</v>
+      </c>
+      <c r="L58" s="20">
+        <v>1</v>
+      </c>
+      <c r="M58" s="20">
+        <v>10</v>
+      </c>
+      <c r="N58" s="20">
+        <v>735</v>
+      </c>
+      <c r="O58" s="20">
+        <v>735</v>
       </c>
       <c r="P58" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q58" s="8">
         <v>0</v>
       </c>
       <c r="R58" s="8">
-        <v>3</v>
-      </c>
-      <c r="S58" s="8">
-        <v>0</v>
-      </c>
-      <c r="T58" s="8">
         <v>546</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>1000057</v>
       </c>
@@ -10350,50 +9736,44 @@
       <c r="F59" s="8">
         <v>1</v>
       </c>
-      <c r="G59" s="15" t="s">
-        <v>106</v>
+      <c r="G59" s="15">
+        <v>300</v>
       </c>
       <c r="H59" s="15">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I59" s="15">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="J59" s="15">
-        <v>600</v>
+        <v>0.2</v>
       </c>
       <c r="K59" s="15">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L59" s="15">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="M59" s="15">
+        <v>10</v>
+      </c>
+      <c r="N59" s="15">
+        <v>3000</v>
+      </c>
+      <c r="O59" s="15">
+        <v>3000</v>
+      </c>
+      <c r="P59" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="15">
+        <v>0</v>
+      </c>
+      <c r="R59" s="15">
         <v>100</v>
       </c>
-      <c r="N59" s="15">
-        <v>2</v>
-      </c>
-      <c r="O59" s="15">
-        <v>10</v>
-      </c>
-      <c r="P59" s="15">
-        <v>3000</v>
-      </c>
-      <c r="Q59" s="15">
-        <v>3000</v>
-      </c>
-      <c r="R59" s="15">
-        <v>1</v>
-      </c>
-      <c r="S59" s="15">
-        <v>0</v>
-      </c>
-      <c r="T59" s="15">
-        <v>100</v>
-      </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>1000058</v>
       </c>
@@ -10414,50 +9794,44 @@
       <c r="F60" s="8">
         <v>2</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60" s="8">
-        <v>1000057</v>
-      </c>
-      <c r="I60" s="8">
-        <v>0</v>
-      </c>
-      <c r="J60" s="8">
-        <v>0</v>
-      </c>
-      <c r="K60" s="8">
-        <v>0</v>
-      </c>
-      <c r="L60" s="8">
-        <v>0</v>
-      </c>
-      <c r="M60" s="8">
-        <v>0</v>
-      </c>
-      <c r="N60" s="8">
-        <v>0</v>
-      </c>
-      <c r="O60" s="8">
-        <v>0</v>
+      <c r="G60" s="20">
+        <v>300</v>
+      </c>
+      <c r="H60" s="20">
+        <v>600</v>
+      </c>
+      <c r="I60" s="20">
+        <v>4</v>
+      </c>
+      <c r="J60" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K60" s="20">
+        <v>100</v>
+      </c>
+      <c r="L60" s="20">
+        <v>2</v>
+      </c>
+      <c r="M60" s="20">
+        <v>10</v>
+      </c>
+      <c r="N60" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O60" s="20">
+        <v>3000</v>
       </c>
       <c r="P60" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q60" s="8">
         <v>0</v>
       </c>
       <c r="R60" s="8">
-        <v>2</v>
-      </c>
-      <c r="S60" s="8">
-        <v>0</v>
-      </c>
-      <c r="T60" s="8">
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>1000059</v>
       </c>
@@ -10478,50 +9852,44 @@
       <c r="F61" s="8">
         <v>3</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H61" s="8">
-        <v>1000057</v>
-      </c>
-      <c r="I61" s="8">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
-        <v>0</v>
-      </c>
-      <c r="K61" s="8">
-        <v>0</v>
-      </c>
-      <c r="L61" s="8">
-        <v>0</v>
-      </c>
-      <c r="M61" s="8">
-        <v>0</v>
-      </c>
-      <c r="N61" s="8">
-        <v>0</v>
-      </c>
-      <c r="O61" s="8">
-        <v>0</v>
+      <c r="G61" s="20">
+        <v>300</v>
+      </c>
+      <c r="H61" s="20">
+        <v>600</v>
+      </c>
+      <c r="I61" s="20">
+        <v>4</v>
+      </c>
+      <c r="J61" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K61" s="20">
+        <v>100</v>
+      </c>
+      <c r="L61" s="20">
+        <v>2</v>
+      </c>
+      <c r="M61" s="20">
+        <v>10</v>
+      </c>
+      <c r="N61" s="20">
+        <v>3000</v>
+      </c>
+      <c r="O61" s="20">
+        <v>3000</v>
       </c>
       <c r="P61" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q61" s="8">
         <v>0</v>
       </c>
       <c r="R61" s="8">
-        <v>3</v>
-      </c>
-      <c r="S61" s="8">
-        <v>0</v>
-      </c>
-      <c r="T61" s="8">
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>1000060</v>
       </c>
@@ -10542,50 +9910,44 @@
       <c r="F62" s="8">
         <v>2</v>
       </c>
-      <c r="G62" s="15" t="s">
-        <v>109</v>
+      <c r="G62" s="15">
+        <v>100</v>
       </c>
       <c r="H62" s="15">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I62" s="15">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="J62" s="15">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="K62" s="15">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="L62" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M62" s="15">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N62" s="15">
+        <v>10000</v>
+      </c>
+      <c r="O62" s="15">
+        <v>3000</v>
+      </c>
+      <c r="P62" s="15">
         <v>1</v>
       </c>
-      <c r="O62" s="15">
-        <v>5</v>
-      </c>
-      <c r="P62" s="15">
-        <v>10000</v>
-      </c>
       <c r="Q62" s="15">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R62" s="15">
-        <v>1</v>
-      </c>
-      <c r="S62" s="15">
-        <v>0</v>
-      </c>
-      <c r="T62" s="15">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>1000061</v>
       </c>
@@ -10606,50 +9968,44 @@
       <c r="F63" s="8">
         <v>3</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H63" s="8">
-        <v>1000060</v>
-      </c>
-      <c r="I63" s="8">
-        <v>0</v>
-      </c>
-      <c r="J63" s="8">
-        <v>0</v>
-      </c>
-      <c r="K63" s="8">
-        <v>0</v>
-      </c>
-      <c r="L63" s="8">
-        <v>0</v>
-      </c>
-      <c r="M63" s="8">
-        <v>0</v>
-      </c>
-      <c r="N63" s="8">
-        <v>0</v>
-      </c>
-      <c r="O63" s="8">
-        <v>0</v>
+      <c r="G63" s="20">
+        <v>100</v>
+      </c>
+      <c r="H63" s="20">
+        <v>400</v>
+      </c>
+      <c r="I63" s="20">
+        <v>3</v>
+      </c>
+      <c r="J63" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K63" s="20">
+        <v>50</v>
+      </c>
+      <c r="L63" s="20">
+        <v>1</v>
+      </c>
+      <c r="M63" s="20">
+        <v>5</v>
+      </c>
+      <c r="N63" s="20">
+        <v>10000</v>
+      </c>
+      <c r="O63" s="20">
+        <v>3000</v>
       </c>
       <c r="P63" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q63" s="8">
         <v>0</v>
       </c>
       <c r="R63" s="8">
-        <v>2</v>
-      </c>
-      <c r="S63" s="8">
-        <v>0</v>
-      </c>
-      <c r="T63" s="8">
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>1000062</v>
       </c>
@@ -10670,50 +10026,44 @@
       <c r="F64" s="8">
         <v>1</v>
       </c>
-      <c r="G64" s="15" t="s">
-        <v>111</v>
+      <c r="G64" s="15">
+        <v>200</v>
       </c>
       <c r="H64" s="15">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I64" s="15">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="J64" s="15">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="K64" s="15">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="L64" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M64" s="15">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="N64" s="15">
+        <v>9000</v>
+      </c>
+      <c r="O64" s="15">
+        <v>5000</v>
+      </c>
+      <c r="P64" s="15">
         <v>1</v>
       </c>
-      <c r="O64" s="15">
-        <v>5</v>
-      </c>
-      <c r="P64" s="15">
-        <v>9000</v>
-      </c>
       <c r="Q64" s="15">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="R64" s="15">
-        <v>1</v>
-      </c>
-      <c r="S64" s="15">
-        <v>0</v>
-      </c>
-      <c r="T64" s="15">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>1000063</v>
       </c>
@@ -10734,50 +10084,44 @@
       <c r="F65" s="8">
         <v>2</v>
       </c>
-      <c r="G65" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H65" s="8">
-        <v>1000062</v>
-      </c>
-      <c r="I65" s="8">
-        <v>0</v>
-      </c>
-      <c r="J65" s="8">
-        <v>0</v>
-      </c>
-      <c r="K65" s="8">
-        <v>0</v>
-      </c>
-      <c r="L65" s="8">
-        <v>0</v>
-      </c>
-      <c r="M65" s="8">
-        <v>0</v>
-      </c>
-      <c r="N65" s="8">
-        <v>0</v>
-      </c>
-      <c r="O65" s="8">
-        <v>0</v>
+      <c r="G65" s="20">
+        <v>200</v>
+      </c>
+      <c r="H65" s="20">
+        <v>500</v>
+      </c>
+      <c r="I65" s="20">
+        <v>3</v>
+      </c>
+      <c r="J65" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K65" s="20">
+        <v>60</v>
+      </c>
+      <c r="L65" s="20">
+        <v>1</v>
+      </c>
+      <c r="M65" s="20">
+        <v>5</v>
+      </c>
+      <c r="N65" s="20">
+        <v>9000</v>
+      </c>
+      <c r="O65" s="20">
+        <v>5000</v>
       </c>
       <c r="P65" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q65" s="8">
         <v>0</v>
       </c>
       <c r="R65" s="8">
-        <v>2</v>
-      </c>
-      <c r="S65" s="8">
-        <v>0</v>
-      </c>
-      <c r="T65" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>1000064</v>
       </c>
@@ -10798,50 +10142,44 @@
       <c r="F66" s="8">
         <v>2</v>
       </c>
-      <c r="G66" s="15" t="s">
-        <v>113</v>
+      <c r="G66" s="15">
+        <v>0</v>
       </c>
       <c r="H66" s="15">
         <v>0</v>
       </c>
       <c r="I66" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K66" s="15">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="L66" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M66" s="15">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="N66" s="15">
+        <v>2000</v>
+      </c>
+      <c r="O66" s="15">
+        <v>3000</v>
+      </c>
+      <c r="P66" s="15">
         <v>1</v>
       </c>
-      <c r="O66" s="15">
-        <v>5</v>
-      </c>
-      <c r="P66" s="15">
-        <v>2000</v>
-      </c>
       <c r="Q66" s="15">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="R66" s="15">
-        <v>1</v>
-      </c>
-      <c r="S66" s="15">
-        <v>750</v>
-      </c>
-      <c r="T66" s="15">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>1000065</v>
       </c>
@@ -10862,50 +10200,44 @@
       <c r="F67" s="8">
         <v>3</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H67" s="8">
-        <v>1000064</v>
-      </c>
-      <c r="I67" s="8">
-        <v>0</v>
-      </c>
-      <c r="J67" s="8">
-        <v>0</v>
-      </c>
-      <c r="K67" s="8">
-        <v>0</v>
-      </c>
-      <c r="L67" s="8">
-        <v>0</v>
-      </c>
-      <c r="M67" s="8">
-        <v>0</v>
-      </c>
-      <c r="N67" s="8">
-        <v>0</v>
-      </c>
-      <c r="O67" s="8">
-        <v>0</v>
+      <c r="G67" s="20">
+        <v>0</v>
+      </c>
+      <c r="H67" s="20">
+        <v>0</v>
+      </c>
+      <c r="I67" s="20">
+        <v>3</v>
+      </c>
+      <c r="J67" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K67" s="20">
+        <v>130</v>
+      </c>
+      <c r="L67" s="20">
+        <v>1</v>
+      </c>
+      <c r="M67" s="20">
+        <v>5</v>
+      </c>
+      <c r="N67" s="20">
+        <v>2000</v>
+      </c>
+      <c r="O67" s="20">
+        <v>3000</v>
       </c>
       <c r="P67" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q67" s="8">
         <v>0</v>
       </c>
       <c r="R67" s="8">
-        <v>2</v>
-      </c>
-      <c r="S67" s="8">
-        <v>0</v>
-      </c>
-      <c r="T67" s="8">
         <v>396</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>1000066</v>
       </c>
@@ -10926,50 +10258,44 @@
       <c r="F68" s="8">
         <v>1</v>
       </c>
-      <c r="G68" s="15" t="s">
-        <v>115</v>
+      <c r="G68" s="15">
+        <v>1500</v>
       </c>
       <c r="H68" s="15">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I68" s="15">
+        <v>2</v>
+      </c>
+      <c r="J68" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="K68" s="15">
+        <v>100</v>
+      </c>
+      <c r="L68" s="15">
+        <v>1</v>
+      </c>
+      <c r="M68" s="15">
+        <v>5</v>
+      </c>
+      <c r="N68" s="15">
         <v>1500</v>
       </c>
-      <c r="J68" s="15">
-        <v>2000</v>
-      </c>
-      <c r="K68" s="15">
-        <v>2</v>
-      </c>
-      <c r="L68" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="M68" s="15">
-        <v>100</v>
-      </c>
-      <c r="N68" s="15">
+      <c r="O68" s="15">
+        <v>1500</v>
+      </c>
+      <c r="P68" s="15">
         <v>1</v>
       </c>
-      <c r="O68" s="15">
-        <v>5</v>
-      </c>
-      <c r="P68" s="15">
-        <v>1500</v>
-      </c>
       <c r="Q68" s="15">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="R68" s="15">
-        <v>1</v>
-      </c>
-      <c r="S68" s="15">
-        <v>0</v>
-      </c>
-      <c r="T68" s="15">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>1000067</v>
       </c>
@@ -10990,50 +10316,44 @@
       <c r="F69" s="8">
         <v>2</v>
       </c>
-      <c r="G69" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H69" s="8">
-        <v>1000066</v>
-      </c>
-      <c r="I69" s="8">
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
-        <v>0</v>
-      </c>
-      <c r="K69" s="8">
-        <v>0</v>
-      </c>
-      <c r="L69" s="8">
-        <v>0</v>
-      </c>
-      <c r="M69" s="8">
-        <v>0</v>
-      </c>
-      <c r="N69" s="8">
-        <v>0</v>
-      </c>
-      <c r="O69" s="8">
-        <v>0</v>
+      <c r="G69" s="20">
+        <v>1500</v>
+      </c>
+      <c r="H69" s="20">
+        <v>2000</v>
+      </c>
+      <c r="I69" s="20">
+        <v>2</v>
+      </c>
+      <c r="J69" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K69" s="20">
+        <v>100</v>
+      </c>
+      <c r="L69" s="20">
+        <v>1</v>
+      </c>
+      <c r="M69" s="20">
+        <v>5</v>
+      </c>
+      <c r="N69" s="20">
+        <v>1500</v>
+      </c>
+      <c r="O69" s="20">
+        <v>1500</v>
       </c>
       <c r="P69" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q69" s="8">
         <v>0</v>
       </c>
       <c r="R69" s="8">
-        <v>2</v>
-      </c>
-      <c r="S69" s="8">
-        <v>0</v>
-      </c>
-      <c r="T69" s="8">
         <v>396</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>1000068</v>
       </c>
@@ -11054,8 +10374,8 @@
       <c r="F70" s="8">
         <v>1</v>
       </c>
-      <c r="G70" s="15" t="s">
-        <v>117</v>
+      <c r="G70" s="15">
+        <v>0</v>
       </c>
       <c r="H70" s="15">
         <v>0</v>
@@ -11067,37 +10387,31 @@
         <v>0</v>
       </c>
       <c r="K70" s="15">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L70" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="15">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N70" s="15">
+        <v>1000</v>
+      </c>
+      <c r="O70" s="15">
+        <v>1000</v>
+      </c>
+      <c r="P70" s="15">
         <v>1</v>
       </c>
-      <c r="O70" s="15">
+      <c r="Q70" s="15">
         <v>5</v>
       </c>
-      <c r="P70" s="15">
-        <v>1000</v>
-      </c>
-      <c r="Q70" s="15">
-        <v>1000</v>
-      </c>
       <c r="R70" s="15">
-        <v>1</v>
-      </c>
-      <c r="S70" s="15">
-        <v>5</v>
-      </c>
-      <c r="T70" s="15">
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>1000069</v>
       </c>
@@ -11118,50 +10432,44 @@
       <c r="F71" s="8">
         <v>2</v>
       </c>
-      <c r="G71" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H71" s="8">
-        <v>1000068</v>
-      </c>
-      <c r="I71" s="8">
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
-        <v>0</v>
-      </c>
-      <c r="K71" s="8">
-        <v>0</v>
-      </c>
-      <c r="L71" s="8">
-        <v>0</v>
-      </c>
-      <c r="M71" s="8">
-        <v>0</v>
-      </c>
-      <c r="N71" s="8">
-        <v>0</v>
-      </c>
-      <c r="O71" s="8">
-        <v>0</v>
+      <c r="G71" s="20">
+        <v>0</v>
+      </c>
+      <c r="H71" s="20">
+        <v>0</v>
+      </c>
+      <c r="I71" s="20">
+        <v>0</v>
+      </c>
+      <c r="J71" s="20">
+        <v>0</v>
+      </c>
+      <c r="K71" s="20">
+        <v>120</v>
+      </c>
+      <c r="L71" s="20">
+        <v>1</v>
+      </c>
+      <c r="M71" s="20">
+        <v>5</v>
+      </c>
+      <c r="N71" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O71" s="20">
+        <v>1000</v>
       </c>
       <c r="P71" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q71" s="8">
         <v>0</v>
       </c>
       <c r="R71" s="8">
-        <v>2</v>
-      </c>
-      <c r="S71" s="8">
-        <v>0</v>
-      </c>
-      <c r="T71" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>1000070</v>
       </c>
@@ -11182,50 +10490,44 @@
       <c r="F72" s="8">
         <v>3</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H72" s="8">
-        <v>1000068</v>
-      </c>
-      <c r="I72" s="8">
-        <v>0</v>
-      </c>
-      <c r="J72" s="8">
-        <v>0</v>
-      </c>
-      <c r="K72" s="8">
-        <v>0</v>
-      </c>
-      <c r="L72" s="8">
-        <v>0</v>
-      </c>
-      <c r="M72" s="8">
-        <v>0</v>
-      </c>
-      <c r="N72" s="8">
-        <v>0</v>
-      </c>
-      <c r="O72" s="8">
-        <v>0</v>
+      <c r="G72" s="20">
+        <v>0</v>
+      </c>
+      <c r="H72" s="20">
+        <v>0</v>
+      </c>
+      <c r="I72" s="20">
+        <v>0</v>
+      </c>
+      <c r="J72" s="20">
+        <v>0</v>
+      </c>
+      <c r="K72" s="20">
+        <v>120</v>
+      </c>
+      <c r="L72" s="20">
+        <v>1</v>
+      </c>
+      <c r="M72" s="20">
+        <v>5</v>
+      </c>
+      <c r="N72" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O72" s="20">
+        <v>1000</v>
       </c>
       <c r="P72" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q72" s="8">
         <v>0</v>
       </c>
       <c r="R72" s="8">
-        <v>3</v>
-      </c>
-      <c r="S72" s="8">
-        <v>0</v>
-      </c>
-      <c r="T72" s="8">
         <v>546</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>1000071</v>
       </c>
@@ -11246,50 +10548,44 @@
       <c r="F73" s="8">
         <v>2</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="15">
+        <v>0</v>
+      </c>
+      <c r="H73" s="15">
+        <v>0</v>
+      </c>
+      <c r="I73" s="15">
+        <v>0</v>
+      </c>
+      <c r="J73" s="15">
+        <v>0</v>
+      </c>
+      <c r="K73" s="15">
         <v>120</v>
       </c>
-      <c r="H73" s="15">
-        <v>0</v>
-      </c>
-      <c r="I73" s="15">
-        <v>0</v>
-      </c>
-      <c r="J73" s="15">
-        <v>0</v>
-      </c>
-      <c r="K73" s="15">
-        <v>0</v>
-      </c>
       <c r="L73" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="15">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N73" s="15">
+        <v>2500</v>
+      </c>
+      <c r="O73" s="15">
+        <v>4500</v>
+      </c>
+      <c r="P73" s="15">
         <v>1</v>
       </c>
-      <c r="O73" s="15">
-        <v>5</v>
-      </c>
-      <c r="P73" s="15">
-        <v>2500</v>
-      </c>
       <c r="Q73" s="15">
-        <v>4500</v>
+        <v>10</v>
       </c>
       <c r="R73" s="15">
-        <v>1</v>
-      </c>
-      <c r="S73" s="15">
-        <v>10</v>
-      </c>
-      <c r="T73" s="15">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>1000072</v>
       </c>
@@ -11310,50 +10606,44 @@
       <c r="F74" s="8">
         <v>3</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H74" s="8">
-        <v>1000071</v>
-      </c>
-      <c r="I74" s="8">
-        <v>0</v>
-      </c>
-      <c r="J74" s="8">
-        <v>0</v>
-      </c>
-      <c r="K74" s="8">
-        <v>0</v>
-      </c>
-      <c r="L74" s="8">
-        <v>0</v>
-      </c>
-      <c r="M74" s="8">
-        <v>0</v>
-      </c>
-      <c r="N74" s="8">
-        <v>0</v>
-      </c>
-      <c r="O74" s="8">
-        <v>0</v>
+      <c r="G74" s="20">
+        <v>0</v>
+      </c>
+      <c r="H74" s="20">
+        <v>0</v>
+      </c>
+      <c r="I74" s="20">
+        <v>0</v>
+      </c>
+      <c r="J74" s="20">
+        <v>0</v>
+      </c>
+      <c r="K74" s="20">
+        <v>120</v>
+      </c>
+      <c r="L74" s="20">
+        <v>1</v>
+      </c>
+      <c r="M74" s="20">
+        <v>5</v>
+      </c>
+      <c r="N74" s="20">
+        <v>2500</v>
+      </c>
+      <c r="O74" s="20">
+        <v>4500</v>
       </c>
       <c r="P74" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q74" s="8">
         <v>0</v>
       </c>
       <c r="R74" s="8">
-        <v>2</v>
-      </c>
-      <c r="S74" s="8">
-        <v>0</v>
-      </c>
-      <c r="T74" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>1000073</v>
       </c>
@@ -11374,50 +10664,44 @@
       <c r="F75" s="8">
         <v>4</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H75" s="8">
-        <v>1000071</v>
-      </c>
-      <c r="I75" s="8">
-        <v>0</v>
-      </c>
-      <c r="J75" s="8">
-        <v>0</v>
-      </c>
-      <c r="K75" s="8">
-        <v>0</v>
-      </c>
-      <c r="L75" s="8">
-        <v>0</v>
-      </c>
-      <c r="M75" s="8">
-        <v>0</v>
-      </c>
-      <c r="N75" s="8">
-        <v>0</v>
-      </c>
-      <c r="O75" s="8">
-        <v>0</v>
+      <c r="G75" s="20">
+        <v>0</v>
+      </c>
+      <c r="H75" s="20">
+        <v>0</v>
+      </c>
+      <c r="I75" s="20">
+        <v>0</v>
+      </c>
+      <c r="J75" s="20">
+        <v>0</v>
+      </c>
+      <c r="K75" s="20">
+        <v>120</v>
+      </c>
+      <c r="L75" s="20">
+        <v>1</v>
+      </c>
+      <c r="M75" s="20">
+        <v>5</v>
+      </c>
+      <c r="N75" s="20">
+        <v>2500</v>
+      </c>
+      <c r="O75" s="20">
+        <v>4500</v>
       </c>
       <c r="P75" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q75" s="8">
         <v>0</v>
       </c>
       <c r="R75" s="8">
-        <v>3</v>
-      </c>
-      <c r="S75" s="8">
-        <v>0</v>
-      </c>
-      <c r="T75" s="8">
         <v>546</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>1000074</v>
       </c>
@@ -11439,50 +10723,44 @@
       <c r="F76" s="8">
         <v>1</v>
       </c>
-      <c r="G76" s="15" t="s">
-        <v>123</v>
+      <c r="G76" s="15">
+        <v>0</v>
       </c>
       <c r="H76" s="15">
         <v>0</v>
       </c>
       <c r="I76" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" s="15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K76" s="15">
+        <v>100</v>
+      </c>
+      <c r="L76" s="15">
+        <v>1</v>
+      </c>
+      <c r="M76" s="15">
+        <v>4</v>
+      </c>
+      <c r="N76" s="15">
+        <v>2000</v>
+      </c>
+      <c r="O76" s="15">
+        <v>1000</v>
+      </c>
+      <c r="P76" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="15">
         <v>3</v>
       </c>
-      <c r="L76" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="M76" s="15">
-        <v>100</v>
-      </c>
-      <c r="N76" s="15">
-        <v>1</v>
-      </c>
-      <c r="O76" s="15">
-        <v>4</v>
-      </c>
-      <c r="P76" s="15">
-        <v>2000</v>
-      </c>
-      <c r="Q76" s="15">
-        <v>1000</v>
-      </c>
       <c r="R76" s="15">
-        <v>1</v>
-      </c>
-      <c r="S76" s="15">
-        <v>3</v>
-      </c>
-      <c r="T76" s="15">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>1000075</v>
       </c>
@@ -11503,50 +10781,44 @@
       <c r="F77" s="8">
         <v>2</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H77" s="8">
-        <v>1000074</v>
-      </c>
-      <c r="I77" s="8">
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
-        <v>0</v>
-      </c>
-      <c r="K77" s="8">
-        <v>0</v>
-      </c>
-      <c r="L77" s="8">
-        <v>0</v>
-      </c>
-      <c r="M77" s="8">
-        <v>0</v>
-      </c>
-      <c r="N77" s="8">
-        <v>0</v>
-      </c>
-      <c r="O77" s="8">
-        <v>0</v>
+      <c r="G77" s="20">
+        <v>0</v>
+      </c>
+      <c r="H77" s="20">
+        <v>0</v>
+      </c>
+      <c r="I77" s="20">
+        <v>3</v>
+      </c>
+      <c r="J77" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K77" s="20">
+        <v>100</v>
+      </c>
+      <c r="L77" s="20">
+        <v>1</v>
+      </c>
+      <c r="M77" s="20">
+        <v>4</v>
+      </c>
+      <c r="N77" s="20">
+        <v>2000</v>
+      </c>
+      <c r="O77" s="20">
+        <v>1000</v>
       </c>
       <c r="P77" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q77" s="8">
         <v>0</v>
       </c>
       <c r="R77" s="8">
-        <v>2</v>
-      </c>
-      <c r="S77" s="8">
-        <v>0</v>
-      </c>
-      <c r="T77" s="8">
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>1000076</v>
       </c>
@@ -11567,46 +10839,40 @@
       <c r="F78" s="8">
         <v>3</v>
       </c>
-      <c r="G78" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H78" s="8">
-        <v>1000074</v>
-      </c>
-      <c r="I78" s="8">
-        <v>0</v>
-      </c>
-      <c r="J78" s="8">
-        <v>0</v>
-      </c>
-      <c r="K78" s="8">
-        <v>0</v>
-      </c>
-      <c r="L78" s="8">
-        <v>0</v>
-      </c>
-      <c r="M78" s="8">
-        <v>0</v>
-      </c>
-      <c r="N78" s="8">
-        <v>0</v>
-      </c>
-      <c r="O78" s="8">
-        <v>0</v>
+      <c r="G78" s="20">
+        <v>0</v>
+      </c>
+      <c r="H78" s="20">
+        <v>0</v>
+      </c>
+      <c r="I78" s="20">
+        <v>3</v>
+      </c>
+      <c r="J78" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K78" s="20">
+        <v>100</v>
+      </c>
+      <c r="L78" s="20">
+        <v>1</v>
+      </c>
+      <c r="M78" s="20">
+        <v>4</v>
+      </c>
+      <c r="N78" s="20">
+        <v>2000</v>
+      </c>
+      <c r="O78" s="20">
+        <v>1000</v>
       </c>
       <c r="P78" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q78" s="8">
         <v>0</v>
       </c>
       <c r="R78" s="8">
-        <v>3</v>
-      </c>
-      <c r="S78" s="8">
-        <v>0</v>
-      </c>
-      <c r="T78" s="8">
         <v>546</v>
       </c>
     </row>
